--- a/examples/3_circle2coplanar_analysis_files/circle-to-coplanar-circle_deltaV.xlsx
+++ b/examples/3_circle2coplanar_analysis_files/circle-to-coplanar-circle_deltaV.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Lambert" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="L-BFGS-B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Ipopt" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Ipopt" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1193,19 +1192,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>5338.07015717357</v>
+        <v>5338.070140264734</v>
       </c>
       <c r="C2" t="n">
-        <v>3658.266756154716</v>
+        <v>3658.266743426805</v>
       </c>
       <c r="D2" t="n">
-        <v>6532.549036687597</v>
+        <v>2488.940111949407</v>
       </c>
       <c r="E2" t="n">
-        <v>3516.089626637365</v>
+        <v>2757.870091810287</v>
       </c>
       <c r="F2" t="n">
-        <v>9962.517512689126</v>
+        <v>2935.4669520753</v>
       </c>
     </row>
     <row r="3">
@@ -1213,19 +1212,19 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>4974.014407076224</v>
+        <v>4974.014390738253</v>
       </c>
       <c r="C3" t="n">
-        <v>3406.947304184469</v>
+        <v>3406.947291986692</v>
       </c>
       <c r="D3" t="n">
-        <v>6240.199230025269</v>
+        <v>2330.821222563153</v>
       </c>
       <c r="E3" t="n">
-        <v>3304.300806076941</v>
+        <v>2797.247597425554</v>
       </c>
       <c r="F3" t="n">
-        <v>9700.128964459993</v>
+        <v>2935.015666877292</v>
       </c>
     </row>
     <row r="4">
@@ -1233,19 +1232,19 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>4619.675829239633</v>
+        <v>4619.675813530707</v>
       </c>
       <c r="C4" t="n">
-        <v>3166.162227502238</v>
+        <v>3166.162215865357</v>
       </c>
       <c r="D4" t="n">
-        <v>5950.454449015969</v>
+        <v>2325.430414350513</v>
       </c>
       <c r="E4" t="n">
-        <v>3114.886744087242</v>
+        <v>2796.22218657555</v>
       </c>
       <c r="F4" t="n">
-        <v>9433.764021702675</v>
+        <v>2934.562947535145</v>
       </c>
     </row>
     <row r="5">
@@ -1253,19 +1252,19 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>4276.311431693828</v>
+        <v>4276.311416662642</v>
       </c>
       <c r="C5" t="n">
-        <v>2936.647679269789</v>
+        <v>2936.647668236841</v>
       </c>
       <c r="D5" t="n">
-        <v>5663.868514453308</v>
+        <v>2319.96372273283</v>
       </c>
       <c r="E5" t="n">
-        <v>2958.343932446524</v>
+        <v>2795.19144968713</v>
       </c>
       <c r="F5" t="n">
-        <v>9163.807870410428</v>
+        <v>2934.10878675645</v>
       </c>
     </row>
     <row r="6">
@@ -1273,19 +1272,19 @@
         <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>3945.01156582014</v>
+        <v>3945.011551505986</v>
       </c>
       <c r="C6" t="n">
-        <v>2719.421194141411</v>
+        <v>2719.421183772106</v>
       </c>
       <c r="D6" t="n">
-        <v>5380.989664568568</v>
+        <v>2314.419425424712</v>
       </c>
       <c r="E6" t="n">
-        <v>2853.246050212401</v>
+        <v>2794.155342464277</v>
       </c>
       <c r="F6" t="n">
-        <v>8890.655398118939</v>
+        <v>2933.653177198108</v>
       </c>
     </row>
     <row r="7">
@@ -1293,19 +1292,19 @@
         <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>3626.700157582301</v>
+        <v>3626.700144015339</v>
       </c>
       <c r="C7" t="n">
-        <v>2516.012508039088</v>
+        <v>2516.012498431416</v>
       </c>
       <c r="D7" t="n">
-        <v>5102.370505535292</v>
+        <v>2308.795745824373</v>
       </c>
       <c r="E7" t="n">
-        <v>2827.489613410375</v>
+        <v>2232.428388756913</v>
       </c>
       <c r="F7" t="n">
-        <v>8614.709568874809</v>
+        <v>2779.855381532056</v>
       </c>
     </row>
     <row r="8">
@@ -1313,16 +1312,16 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>3322.141346586038</v>
+        <v>3322.141333788149</v>
       </c>
       <c r="C8" t="n">
-        <v>2328.878329916512</v>
+        <v>2328.878321233074</v>
       </c>
       <c r="D8" t="n">
-        <v>4828.582923031592</v>
+        <v>2467.728565285756</v>
       </c>
       <c r="E8" t="n">
-        <v>2826.613939838989</v>
+        <v>2826.613939828985</v>
       </c>
       <c r="F8" t="n">
         <v>8336.380043088513</v>
@@ -1333,16 +1332,16 @@
         <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>3031.953090798622</v>
+        <v>3031.953078784517</v>
       </c>
       <c r="C9" t="n">
-        <v>2162.17005795336</v>
+        <v>2162.170050476017</v>
       </c>
       <c r="D9" t="n">
-        <v>4560.24013488732</v>
+        <v>2464.056312022397</v>
       </c>
       <c r="E9" t="n">
-        <v>2825.73412907963</v>
+        <v>2825.734128195451</v>
       </c>
       <c r="F9" t="n">
         <v>8056.082138788354</v>
@@ -1353,16 +1352,16 @@
         <v>90</v>
       </c>
       <c r="B10" t="n">
-        <v>2756.628849791919</v>
+        <v>2756.628838570595</v>
       </c>
       <c r="C10" t="n">
-        <v>2023.162050819298</v>
+        <v>2023.162045048875</v>
       </c>
       <c r="D10" t="n">
-        <v>4298.029486423427</v>
+        <v>2460.343058014074</v>
       </c>
       <c r="E10" t="n">
-        <v>2824.850147137167</v>
+        <v>2824.850147124113</v>
       </c>
       <c r="F10" t="n">
         <v>7774.236246575352</v>
@@ -1373,16 +1372,16 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>2496.569677842761</v>
+        <v>2496.56966741961</v>
       </c>
       <c r="C11" t="n">
-        <v>1924.79087938307</v>
+        <v>1924.79087620984</v>
       </c>
       <c r="D11" t="n">
-        <v>4042.762129572598</v>
+        <v>2456.588067380786</v>
       </c>
       <c r="E11" t="n">
-        <v>2823.961965000754</v>
+        <v>2823.961964982262</v>
       </c>
       <c r="F11" t="n">
         <v>7491.267832370564</v>
@@ -1393,16 +1392,16 @@
         <v>110</v>
       </c>
       <c r="B12" t="n">
-        <v>2252.131545352953</v>
+        <v>2252.131535732816</v>
       </c>
       <c r="C12" t="n">
-        <v>1887.284753982593</v>
+        <v>1887.284753828046</v>
       </c>
       <c r="D12" t="n">
-        <v>3795.450402949564</v>
+        <v>2452.790585959245</v>
       </c>
       <c r="E12" t="n">
-        <v>10577.56921304392</v>
+        <v>2823.069549806836</v>
       </c>
       <c r="F12" t="n">
         <v>7207.608192972019</v>
@@ -1413,16 +1412,16 @@
         <v>120</v>
       </c>
       <c r="B13" t="n">
-        <v>2023.697729747719</v>
+        <v>2023.697720939395</v>
       </c>
       <c r="C13" t="n">
-        <v>1873.321782937578</v>
+        <v>1873.321782632196</v>
       </c>
       <c r="D13" t="n">
-        <v>3557.432615502132</v>
+        <v>2448.949840720781</v>
       </c>
       <c r="E13" t="n">
-        <v>10322.79303709282</v>
+        <v>2822.172869299478</v>
       </c>
       <c r="F13" t="n">
         <v>6923.696174242637</v>
@@ -1433,16 +1432,16 @@
         <v>130</v>
       </c>
       <c r="B14" t="n">
-        <v>1811.796410682336</v>
+        <v>1811.796402706044</v>
       </c>
       <c r="C14" t="n">
-        <v>1859.005400921259</v>
+        <v>1859.005400679071</v>
       </c>
       <c r="D14" t="n">
-        <v>3330.582343535445</v>
+        <v>2445.065039164851</v>
       </c>
       <c r="E14" t="n">
-        <v>10062.861387779</v>
+        <v>2821.27189082289</v>
       </c>
       <c r="F14" t="n">
         <v>6639.981127771924</v>
@@ -1453,16 +1452,16 @@
         <v>140</v>
       </c>
       <c r="B15" t="n">
-        <v>1617.305075622854</v>
+        <v>1617.305068523371</v>
       </c>
       <c r="C15" t="n">
-        <v>1844.320841545929</v>
+        <v>1844.320841379671</v>
       </c>
       <c r="D15" t="n">
-        <v>3117.674360333835</v>
+        <v>2441.13536869061</v>
       </c>
       <c r="E15" t="n">
-        <v>9798.188344423614</v>
+        <v>2820.366581395445</v>
       </c>
       <c r="F15" t="n">
         <v>6356.92748072531</v>
@@ -1473,16 +1472,16 @@
         <v>150</v>
       </c>
       <c r="B16" t="n">
-        <v>1441.827788575591</v>
+        <v>1441.827782446625</v>
       </c>
       <c r="C16" t="n">
-        <v>1829.252453068324</v>
+        <v>1829.252452650893</v>
       </c>
       <c r="D16" t="n">
-        <v>2923.050883564741</v>
+        <v>2437.159995941955</v>
       </c>
       <c r="E16" t="n">
-        <v>9529.205499789652</v>
+        <v>1742.953668034885</v>
       </c>
       <c r="F16" t="n">
         <v>6075.021444242824</v>
@@ -1493,16 +1492,16 @@
         <v>160</v>
       </c>
       <c r="B17" t="n">
-        <v>1288.41435987196</v>
+        <v>1288.414354902231</v>
       </c>
       <c r="C17" t="n">
-        <v>1813.783625730301</v>
+        <v>1813.783625554963</v>
       </c>
       <c r="D17" t="n">
-        <v>2753.877581238358</v>
+        <v>2247.758458983053</v>
       </c>
       <c r="E17" t="n">
-        <v>9256.359088482695</v>
+        <v>2818.542836014803</v>
       </c>
       <c r="F17" t="n">
         <v>5794.780619761557</v>
@@ -1513,13 +1512,13 @@
         <v>170</v>
       </c>
       <c r="B18" t="n">
-        <v>1162.876862204278</v>
+        <v>1162.876858758226</v>
       </c>
       <c r="C18" t="n">
-        <v>9858.417812764248</v>
+        <v>1797.89671548471</v>
       </c>
       <c r="D18" t="n">
-        <v>2622.565065116242</v>
+        <v>2622.565059625785</v>
       </c>
       <c r="E18" t="n">
         <v>8980.107112240988</v>
@@ -1533,13 +1532,13 @@
         <v>180</v>
       </c>
       <c r="B19" t="n">
-        <v>1075.647508196514</v>
+        <v>1075.647506889094</v>
       </c>
       <c r="C19" t="n">
         <v>9552.907605100441</v>
       </c>
       <c r="D19" t="n">
-        <v>2551.467097440023</v>
+        <v>2551.46709601734</v>
       </c>
       <c r="E19" t="n">
         <v>8700.916549737824</v>
@@ -1553,19 +1552,19 @@
         <v>190</v>
       </c>
       <c r="B20" t="n">
-        <v>1025.930923487598</v>
+        <v>1025.930922943831</v>
       </c>
       <c r="C20" t="n">
         <v>9240.490046867601</v>
       </c>
       <c r="D20" t="n">
-        <v>2545.203084862167</v>
+        <v>2545.203084829951</v>
       </c>
       <c r="E20" t="n">
         <v>8419.260746240803</v>
       </c>
       <c r="F20" t="n">
-        <v>4970.025733101123</v>
+        <v>2803.995637854521</v>
       </c>
     </row>
     <row r="21">
@@ -1573,19 +1572,19 @@
         <v>200</v>
       </c>
       <c r="B21" t="n">
-        <v>975.7238660164321</v>
+        <v>975.7238654248765</v>
       </c>
       <c r="C21" t="n">
         <v>8922.231747131806</v>
       </c>
       <c r="D21" t="n">
-        <v>2542.333222671662</v>
+        <v>2542.333222630057</v>
       </c>
       <c r="E21" t="n">
         <v>8135.617087225924</v>
       </c>
       <c r="F21" t="n">
-        <v>4702.868874360967</v>
+        <v>2863.572369032546</v>
       </c>
     </row>
     <row r="22">
@@ -1593,19 +1592,19 @@
         <v>210</v>
       </c>
       <c r="B22" t="n">
-        <v>921.8714188051283</v>
+        <v>921.8714180971754</v>
       </c>
       <c r="C22" t="n">
         <v>8599.243872980209</v>
       </c>
       <c r="D22" t="n">
-        <v>2539.435734370802</v>
+        <v>2539.435734034064</v>
       </c>
       <c r="E22" t="n">
         <v>7850.465070925136</v>
       </c>
       <c r="F22" t="n">
-        <v>4441.186456591052</v>
+        <v>2834.94808043467</v>
       </c>
     </row>
     <row r="23">
@@ -1613,19 +1612,19 @@
         <v>220</v>
       </c>
       <c r="B23" t="n">
-        <v>863.7012271459726</v>
+        <v>863.7012264675042</v>
       </c>
       <c r="C23" t="n">
         <v>8272.667561759468</v>
       </c>
       <c r="D23" t="n">
-        <v>2536.510192190631</v>
+        <v>2536.510192077216</v>
       </c>
       <c r="E23" t="n">
         <v>7564.284909408889</v>
       </c>
       <c r="F23" t="n">
-        <v>4186.316369704147</v>
+        <v>2886.238774180857</v>
       </c>
     </row>
     <row r="24">
@@ -1633,19 +1632,19 @@
         <v>230</v>
       </c>
       <c r="B24" t="n">
-        <v>800.2644125211906</v>
+        <v>800.264411731024</v>
       </c>
       <c r="C24" t="n">
         <v>7943.658993802976</v>
       </c>
       <c r="D24" t="n">
-        <v>2533.556160707536</v>
+        <v>2533.556160674359</v>
       </c>
       <c r="E24" t="n">
         <v>7277.556808534306</v>
       </c>
       <c r="F24" t="n">
-        <v>3940.040869609618</v>
+        <v>2906.672805096325</v>
       </c>
     </row>
     <row r="25">
@@ -1653,19 +1652,19 @@
         <v>240</v>
       </c>
       <c r="B25" t="n">
-        <v>730.1233448174767</v>
+        <v>730.1233432326917</v>
       </c>
       <c r="C25" t="n">
-        <v>7613.374523901208</v>
+        <v>7613.374507064216</v>
       </c>
       <c r="D25" t="n">
-        <v>10293.84180781797</v>
+        <v>2530.57319437101</v>
       </c>
       <c r="E25" t="n">
         <v>6990.761107467828</v>
       </c>
       <c r="F25" t="n">
-        <v>3704.845149468517</v>
+        <v>2884.988122473462</v>
       </c>
     </row>
     <row r="26">
@@ -1673,19 +1672,19 @@
         <v>250</v>
       </c>
       <c r="B26" t="n">
-        <v>650.8586809994135</v>
+        <v>650.8586703224794</v>
       </c>
       <c r="C26" t="n">
-        <v>7282.956274303042</v>
+        <v>7282.956257521157</v>
       </c>
       <c r="D26" t="n">
-        <v>10023.63119553214</v>
+        <v>2527.560838084988</v>
       </c>
       <c r="E26" t="n">
         <v>6704.379503901368</v>
       </c>
       <c r="F26" t="n">
-        <v>3484.371393855293</v>
+        <v>2884.359169430365</v>
       </c>
     </row>
     <row r="27">
@@ -1693,19 +1692,19 @@
         <v>260</v>
       </c>
       <c r="B27" t="n">
-        <v>557.6217543174682</v>
+        <v>557.6217530602697</v>
       </c>
       <c r="C27" t="n">
-        <v>6953.518585039701</v>
+        <v>6953.518568368915</v>
       </c>
       <c r="D27" t="n">
-        <v>9747.92589294272</v>
+        <v>2524.518626840192</v>
       </c>
       <c r="E27" t="n">
         <v>6418.89765983657</v>
       </c>
       <c r="F27" t="n">
-        <v>3284.253424957597</v>
+        <v>2923.737136005442</v>
       </c>
     </row>
     <row r="28">
@@ -1716,7 +1715,7 @@
         <v>9144.126861861041</v>
       </c>
       <c r="C28" t="n">
-        <v>6626.135699787605</v>
+        <v>6626.135683281102</v>
       </c>
       <c r="D28" t="n">
         <v>9467.321987309195</v>
@@ -1725,7 +1724,7 @@
         <v>6134.809588227616</v>
       </c>
       <c r="F28" t="n">
-        <v>3113.720542988191</v>
+        <v>2904.467762189698</v>
       </c>
     </row>
     <row r="29">
@@ -1736,16 +1735,16 @@
         <v>8778.228849706504</v>
       </c>
       <c r="C29" t="n">
-        <v>6301.831039510087</v>
+        <v>6301.831023217756</v>
       </c>
       <c r="D29" t="n">
         <v>9182.439042743667</v>
       </c>
       <c r="E29" t="n">
-        <v>5852.624384560733</v>
+        <v>5852.624369728032</v>
       </c>
       <c r="F29" t="n">
-        <v>2988.809442035672</v>
+        <v>2903.911550433835</v>
       </c>
     </row>
     <row r="30">
@@ -1756,16 +1755,16 @@
         <v>8403.927004606792</v>
       </c>
       <c r="C30" t="n">
-        <v>5981.568385572542</v>
+        <v>5981.568369540604</v>
       </c>
       <c r="D30" t="n">
         <v>8893.914347556096</v>
       </c>
       <c r="E30" t="n">
-        <v>5572.876126220361</v>
+        <v>2660.301539047544</v>
       </c>
       <c r="F30" t="n">
-        <v>2939.026463067492</v>
+        <v>2922.26387902291</v>
       </c>
     </row>
     <row r="31">
@@ -1776,16 +1775,16 @@
         <v>8023.094521579485</v>
       </c>
       <c r="C31" t="n">
-        <v>5666.245264910804</v>
+        <v>5666.245249181594</v>
       </c>
       <c r="D31" t="n">
         <v>8602.39710239349</v>
       </c>
       <c r="E31" t="n">
-        <v>5296.138179650461</v>
+        <v>2718.647478095882</v>
       </c>
       <c r="F31" t="n">
-        <v>2938.586394911413</v>
+        <v>2921.769504309992</v>
       </c>
     </row>
     <row r="32">
@@ -1793,19 +1792,19 @@
         <v>310</v>
       </c>
       <c r="B32" t="n">
-        <v>7637.672323790302</v>
+        <v>7637.672305146883</v>
       </c>
       <c r="C32" t="n">
-        <v>5356.688811123346</v>
+        <v>5356.688795735197</v>
       </c>
       <c r="D32" t="n">
         <v>8308.542702051605</v>
       </c>
       <c r="E32" t="n">
-        <v>5023.043844014233</v>
+        <v>2765.173451457334</v>
       </c>
       <c r="F32" t="n">
-        <v>2938.144950479205</v>
+        <v>2921.273470382672</v>
       </c>
     </row>
     <row r="33">
@@ -1813,19 +1812,19 @@
         <v>320</v>
       </c>
       <c r="B33" t="n">
-        <v>7249.63777807689</v>
+        <v>7249.637759487639</v>
       </c>
       <c r="C33" t="n">
-        <v>5053.654380379605</v>
+        <v>5053.654365366925</v>
       </c>
       <c r="D33" t="n">
         <v>8013.007269620259</v>
       </c>
       <c r="E33" t="n">
-        <v>4754.316428320897</v>
+        <v>2715.672471099673</v>
       </c>
       <c r="F33" t="n">
-        <v>2937.702117623972</v>
+        <v>2937.702117618849</v>
       </c>
     </row>
     <row r="34">
@@ -1833,19 +1832,19 @@
         <v>330</v>
       </c>
       <c r="B34" t="n">
-        <v>6860.972757761305</v>
+        <v>6860.972739327215</v>
       </c>
       <c r="C34" t="n">
-        <v>4757.827250015313</v>
+        <v>4757.827235408806</v>
       </c>
       <c r="D34" t="n">
         <v>7716.442606249277</v>
       </c>
       <c r="E34" t="n">
-        <v>4490.813901185458</v>
+        <v>2714.170460980442</v>
       </c>
       <c r="F34" t="n">
-        <v>2937.2578955166</v>
+        <v>2937.257895511478</v>
       </c>
     </row>
     <row r="35">
@@ -1853,19 +1852,19 @@
         <v>340</v>
       </c>
       <c r="B35" t="n">
-        <v>6473.631961499659</v>
+        <v>6473.631943317419</v>
       </c>
       <c r="C35" t="n">
-        <v>4469.827852624719</v>
+        <v>4469.827838451805</v>
       </c>
       <c r="D35" t="n">
         <v>7419.491724617852</v>
       </c>
       <c r="E35" t="n">
-        <v>4233.596939356971</v>
+        <v>2801.296849007992</v>
       </c>
       <c r="F35" t="n">
-        <v>10722.15647166628</v>
+        <v>2936.812274971697</v>
       </c>
     </row>
     <row r="36">
@@ -1873,755 +1872,19 @@
         <v>350</v>
       </c>
       <c r="B36" t="n">
-        <v>6089.512432884429</v>
+        <v>6089.512415045096</v>
       </c>
       <c r="C36" t="n">
-        <v>4190.221252627849</v>
+        <v>4190.221238913375</v>
       </c>
       <c r="D36" t="n">
         <v>7122.785141160549</v>
       </c>
       <c r="E36" t="n">
-        <v>3984.036086150558</v>
+        <v>2760.3325253465</v>
       </c>
       <c r="F36" t="n">
-        <v>10473.88398592155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5338.070140264734</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3658.266743426805</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2488.940111949407</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2757.870091810284</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2935.466952075298</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4974.014390738253</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3406.947291986692</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2330.821222563152</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2797.247597425554</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2935.015666877292</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4619.675813530707</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3166.162215865357</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2325.430414350514</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2796.222186575556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2934.562947535145</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4276.311416662642</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2936.647668236841</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2319.963722732839</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2795.19144968713</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2934.108786756452</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3945.011551505986</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2719.421183772106</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2314.419425424719</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2794.155342464287</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2933.653177198109</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3626.700144015339</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2516.012498431416</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2308.79574582437</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2232.428388756925</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2779.855381532064</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3322.141333788149</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2328.878321233074</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2467.728565285749</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2826.613939828986</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8336.380043088513</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3031.953078784517</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2162.170050476017</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2464.056312022398</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2825.73412819545</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8056.082138788354</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2756.628838570595</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2023.162045048875</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2460.343058014076</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2824.850147124115</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7774.236246575352</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2496.56966741961</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1924.79087620984</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2456.588067380786</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2823.961964982263</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7491.267832370564</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2252.131535732816</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1887.284753828046</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2452.790585959235</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2823.069549806837</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7207.608192972019</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2023.697720939395</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1873.321782632195</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2448.949840720788</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2822.172869299477</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6923.696174242637</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1811.796402706044</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1859.005400679071</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2445.065039164851</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2821.271890822889</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6639.981127771924</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1617.305068523371</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1844.320841379672</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2441.135368690609</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2820.366581395445</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6356.92748072531</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1441.827782446625</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1829.252452650893</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2437.159995941954</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1742.953668034869</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6075.021444242824</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1288.414354902231</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1813.783625554963</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2247.758458983067</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2818.542836014801</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5794.780619761557</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1162.876858758226</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1797.896715484713</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2622.565059625785</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8980.107112240988</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5516.767634281921</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1075.647506889094</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9552.907605100441</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2551.46709601734</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8700.916549737824</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5241.60954076073</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1025.930922943831</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9240.490046867601</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2545.203084829953</v>
-      </c>
-      <c r="E20" t="n">
-        <v>8419.260746240803</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2803.995637854483</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B21" t="n">
-        <v>975.7238654248762</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8922.231747131806</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2542.333222630055</v>
-      </c>
-      <c r="E21" t="n">
-        <v>8135.617087225924</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2863.572369032505</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B22" t="n">
-        <v>921.8714180971743</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8599.243872980209</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2539.435734034062</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7850.465070925136</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2834.948080434656</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B23" t="n">
-        <v>863.7012264675034</v>
-      </c>
-      <c r="C23" t="n">
-        <v>8272.667561759468</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2536.510192077219</v>
-      </c>
-      <c r="E23" t="n">
-        <v>7564.284909408889</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2886.238774180828</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B24" t="n">
-        <v>800.2644117310242</v>
-      </c>
-      <c r="C24" t="n">
-        <v>7943.658993802976</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2533.556160674359</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7277.556808534306</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2906.67280509634</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B25" t="n">
-        <v>730.1233432326922</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7613.374507064216</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2530.57319437101</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6990.761107467828</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2884.988122473495</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B26" t="n">
-        <v>650.8586703224756</v>
-      </c>
-      <c r="C26" t="n">
-        <v>7282.956257521157</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2527.560838084988</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6704.379503901368</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2884.359169430361</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B27" t="n">
-        <v>557.6217530602659</v>
-      </c>
-      <c r="C27" t="n">
-        <v>6953.518568368915</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2524.518626840194</v>
-      </c>
-      <c r="E27" t="n">
-        <v>6418.89765983657</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2923.737136005447</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B28" t="n">
-        <v>9144.126861861041</v>
-      </c>
-      <c r="C28" t="n">
-        <v>6626.135683281102</v>
-      </c>
-      <c r="D28" t="n">
-        <v>9467.321987309195</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6134.809588227616</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2904.467762189709</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B29" t="n">
-        <v>8778.228849706504</v>
-      </c>
-      <c r="C29" t="n">
-        <v>6301.831023217756</v>
-      </c>
-      <c r="D29" t="n">
-        <v>9182.439042743667</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5852.624369728032</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2903.911550433812</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B30" t="n">
-        <v>8403.927004606792</v>
-      </c>
-      <c r="C30" t="n">
-        <v>5981.568369540604</v>
-      </c>
-      <c r="D30" t="n">
-        <v>8893.914347556096</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2660.301539047528</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2922.263879022908</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B31" t="n">
-        <v>8023.094521579485</v>
-      </c>
-      <c r="C31" t="n">
-        <v>5666.245249181594</v>
-      </c>
-      <c r="D31" t="n">
-        <v>8602.39710239349</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2718.647478095868</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2921.769504309994</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B32" t="n">
-        <v>7637.672305146883</v>
-      </c>
-      <c r="C32" t="n">
-        <v>5356.688795735197</v>
-      </c>
-      <c r="D32" t="n">
-        <v>8308.542702051605</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2765.173451457308</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2921.273470382668</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B33" t="n">
-        <v>7249.637759487639</v>
-      </c>
-      <c r="C33" t="n">
-        <v>5053.654365366925</v>
-      </c>
-      <c r="D33" t="n">
-        <v>8013.007269620259</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2715.67247109969</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2937.702117618848</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B34" t="n">
-        <v>6860.972739327215</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4757.827235408806</v>
-      </c>
-      <c r="D34" t="n">
-        <v>7716.442606249277</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2714.170460980406</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2937.257895511479</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B35" t="n">
-        <v>6473.631943317419</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4469.827838451805</v>
-      </c>
-      <c r="D35" t="n">
-        <v>7419.491724617852</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2801.296849007989</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2936.812274971696</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B36" t="n">
-        <v>6089.512415045096</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4190.221238913375</v>
-      </c>
-      <c r="D36" t="n">
-        <v>7122.785141160549</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2760.332525346478</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2936.365248955729</v>
+        <v>2936.365248955728</v>
       </c>
     </row>
   </sheetData>
